--- a/biology/Botanique/Habenaria/Habenaria.xlsx
+++ b/biology/Botanique/Habenaria/Habenaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Habenaria est un genre d'orchidées terrestres comptant environ 600 espèces. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles disposées en spirale autour de leur tige.
 </t>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tiges et feuilles sèchent après floraison, il ne reste que le tubercule. Dans cette phase de dormance, la plante n'a besoin que de peu d'eau[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges et feuilles sèchent après floraison, il ne reste que le tubercule. Dans cette phase de dormance, la plante n'a besoin que de peu d'eau.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones tropicales ou tempérées d'Amérique, d'Afrique et d'Asie.
 </t>
@@ -604,7 +622,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Acrostylia Frapp. 1895;
 Ala Szlach. (1994).
@@ -613,7 +633,7 @@
 Ate Lindl. (1835).
 Bertauxia Szlach. (2004).
 Bilabrella Lindley 1834;
-Blephariglottis Raf. 1836[1837];
+Blephariglottis Raf. 1836;
 Centrochilus Schau. 1843;
 Ceratopetalorchis Szlach. (2003).
 Choeradoplectron Schau. 1843;
@@ -644,7 +664,7 @@
 Mesicera Raf. 4 (1825).
 Mirandorchis Szlach. &amp; Kras-Lap. 2003;
 Montolivaea Rchb.f 1881;
-Neolindleya Krzl. 1899[1901];
+Neolindleya Krzl. 1899;
 Nemuranthes Raf. (1837).
 Ochyrorchis Szlach. 2004;
 Perularia Lindley 1835;
@@ -691,7 +711,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Habenaria arenaria
 Habenaria alinae
@@ -716,7 +738,7 @@
 Habenaria microceras
 Habenaria nigrescens
 Habenaria obovata
-Habenaria paxamorque - Guyane française, Suriname et nord du Brésil[2]
+Habenaria paxamorque - Guyane française, Suriname et nord du Brésil
 Habenaria pratensis (Lindley) H.G. Reichenbach
 Habenaria procera
 Habenaria quinqueseta
